--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43307,6 +43307,43 @@
         <v>21000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43344,6 +43344,41 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>80100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43379,6 +43379,43 @@
         <v>80100</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43416,6 +43416,41 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>51200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43451,6 +43451,41 @@
         <v>51200</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43486,6 +43486,41 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>60000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43521,6 +43521,41 @@
         <v>60000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>40000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43556,6 +43556,43 @@
         <v>40000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43593,6 +43593,41 @@
         </is>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>8000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43628,6 +43628,41 @@
         <v>8000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>45000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43663,6 +43663,41 @@
         <v>45000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>26100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43698,6 +43698,41 @@
         <v>26100</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>7200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43733,6 +43733,76 @@
         <v>7200</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>126900</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>50100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43803,6 +43803,76 @@
         <v>50100</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>55800</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>51000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43873,6 +43873,43 @@
         <v>51000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I1234" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43910,6 +43910,41 @@
         </is>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43945,6 +43945,43 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="I1236" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43982,6 +43982,41 @@
         </is>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>261700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44017,6 +44017,76 @@
         <v>261700</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>425000</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>19000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44087,6 +44087,41 @@
         <v>19000</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>44000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44122,6 +44122,41 @@
         <v>44000</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>164100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2244"/>
+  <dimension ref="A1:I2245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79262,6 +79262,41 @@
         <v>164100</v>
       </c>
     </row>
+    <row r="2245">
+      <c r="A2245" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2245" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2245" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D2245" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E2245" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F2245" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G2245" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H2245" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I2245" t="n">
+        <v>199000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2245"/>
+  <dimension ref="A1:I2246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79297,6 +79297,41 @@
         <v>199000</v>
       </c>
     </row>
+    <row r="2246">
+      <c r="A2246" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2246" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2246" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D2246" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E2246" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F2246" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G2246" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H2246" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="I2246" t="n">
+        <v>143200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2246"/>
+  <dimension ref="A1:I2247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79332,6 +79332,41 @@
         <v>143200</v>
       </c>
     </row>
+    <row r="2247">
+      <c r="A2247" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2247" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2247" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D2247" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E2247" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F2247" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G2247" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H2247" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I2247" t="n">
+        <v>243200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2247"/>
+  <dimension ref="A1:I2248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79367,6 +79367,41 @@
         <v>243200</v>
       </c>
     </row>
+    <row r="2248">
+      <c r="A2248" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2248" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2248" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D2248" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E2248" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2248" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G2248" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2248" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2248" t="n">
+        <v>376500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2248"/>
+  <dimension ref="A1:I2249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79402,6 +79402,41 @@
         <v>376500</v>
       </c>
     </row>
+    <row r="2249">
+      <c r="A2249" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2249" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2249" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D2249" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E2249" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F2249" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G2249" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H2249" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I2249" t="n">
+        <v>137500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2249"/>
+  <dimension ref="A1:I2250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79437,6 +79437,41 @@
         <v>137500</v>
       </c>
     </row>
+    <row r="2250">
+      <c r="A2250" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2250" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2250" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D2250" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E2250" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F2250" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G2250" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2250" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I2250" t="n">
+        <v>53000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2250"/>
+  <dimension ref="A1:I2251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79472,6 +79472,41 @@
         <v>53000</v>
       </c>
     </row>
+    <row r="2251">
+      <c r="A2251" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2251" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2251" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D2251" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E2251" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2251" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G2251" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2251" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I2251" t="n">
+        <v>300000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2251"/>
+  <dimension ref="A1:I2252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79507,6 +79507,41 @@
         <v>300000</v>
       </c>
     </row>
+    <row r="2252">
+      <c r="A2252" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2252" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2252" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D2252" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E2252" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="F2252" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G2252" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H2252" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I2252" t="n">
+        <v>51800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2252"/>
+  <dimension ref="A1:I2253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79542,6 +79542,41 @@
         <v>51800</v>
       </c>
     </row>
+    <row r="2253">
+      <c r="A2253" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2253" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2253" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D2253" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E2253" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F2253" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G2253" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H2253" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I2253" t="n">
+        <v>22400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2253"/>
+  <dimension ref="A1:I2254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79577,6 +79577,41 @@
         <v>22400</v>
       </c>
     </row>
+    <row r="2254">
+      <c r="A2254" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2254" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2254" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D2254" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E2254" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2254" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G2254" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2254" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I2254" t="n">
+        <v>143600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2254"/>
+  <dimension ref="A1:I2255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79612,6 +79612,41 @@
         <v>143600</v>
       </c>
     </row>
+    <row r="2255">
+      <c r="A2255" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2255" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2255" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D2255" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E2255" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F2255" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G2255" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H2255" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I2255" t="n">
+        <v>27000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2255"/>
+  <dimension ref="A1:I2256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79647,6 +79647,41 @@
         <v>27000</v>
       </c>
     </row>
+    <row r="2256">
+      <c r="A2256" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2256" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2256" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D2256" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E2256" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F2256" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G2256" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H2256" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I2256" t="n">
+        <v>38000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2256"/>
+  <dimension ref="A1:I2257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79682,6 +79682,41 @@
         <v>38000</v>
       </c>
     </row>
+    <row r="2257">
+      <c r="A2257" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2257" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2257" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D2257" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E2257" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F2257" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G2257" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H2257" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I2257" t="n">
+        <v>27000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2257"/>
+  <dimension ref="A1:I2258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79717,6 +79717,41 @@
         <v>27000</v>
       </c>
     </row>
+    <row r="2258">
+      <c r="A2258" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2258" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2258" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D2258" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E2258" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F2258" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G2258" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H2258" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I2258" t="n">
+        <v>57100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2258"/>
+  <dimension ref="A1:I2259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79752,6 +79752,41 @@
         <v>57100</v>
       </c>
     </row>
+    <row r="2259">
+      <c r="A2259" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2259" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2259" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D2259" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E2259" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F2259" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G2259" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H2259" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I2259" t="n">
+        <v>1600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2502"/>
+  <dimension ref="A1:I2503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88292,6 +88292,41 @@
         <v>1600</v>
       </c>
     </row>
+    <row r="2503">
+      <c r="A2503" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2503" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2503" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D2503" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E2503" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F2503" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G2503" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H2503" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I2503" t="n">
+        <v>30500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2503"/>
+  <dimension ref="A1:I2504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88327,6 +88327,41 @@
         <v>30500</v>
       </c>
     </row>
+    <row r="2504">
+      <c r="A2504" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2504" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2504" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D2504" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E2504" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="F2504" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="G2504" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H2504" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I2504" t="n">
+        <v>386800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2504"/>
+  <dimension ref="A1:I2505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88362,6 +88362,41 @@
         <v>386800</v>
       </c>
     </row>
+    <row r="2505">
+      <c r="A2505" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2505" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2505" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D2505" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E2505" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F2505" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G2505" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H2505" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="I2505" t="n">
+        <v>111000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2505"/>
+  <dimension ref="A1:I2506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88397,6 +88397,41 @@
         <v>111000</v>
       </c>
     </row>
+    <row r="2506">
+      <c r="A2506" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2506" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2506" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D2506" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E2506" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="F2506" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G2506" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="H2506" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="I2506" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2506"/>
+  <dimension ref="A1:I2507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88432,6 +88432,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2507">
+      <c r="A2507" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2507" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2507" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D2507" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E2507" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="F2507" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="G2507" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="H2507" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="I2507" t="n">
+        <v>35000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2507"/>
+  <dimension ref="A1:I2508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88467,6 +88467,41 @@
         <v>35000</v>
       </c>
     </row>
+    <row r="2508">
+      <c r="A2508" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2508" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2508" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D2508" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E2508" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F2508" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G2508" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H2508" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I2508" t="n">
+        <v>60600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2508"/>
+  <dimension ref="A1:I2509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88502,6 +88502,41 @@
         <v>60600</v>
       </c>
     </row>
+    <row r="2509">
+      <c r="A2509" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2509" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2509" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D2509" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E2509" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F2509" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G2509" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H2509" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I2509" t="n">
+        <v>38800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2509"/>
+  <dimension ref="A1:I2510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88537,6 +88537,41 @@
         <v>38800</v>
       </c>
     </row>
+    <row r="2510">
+      <c r="A2510" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2510" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2510" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D2510" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E2510" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F2510" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G2510" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H2510" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I2510" t="n">
+        <v>42000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2510"/>
+  <dimension ref="A1:I2511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88572,6 +88572,41 @@
         <v>42000</v>
       </c>
     </row>
+    <row r="2511">
+      <c r="A2511" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2511" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2511" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D2511" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E2511" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F2511" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G2511" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H2511" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I2511" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2511"/>
+  <dimension ref="A1:I2512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88607,6 +88607,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="2512">
+      <c r="A2512" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2512" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2512" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D2512" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E2512" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="F2512" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="G2512" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H2512" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="I2512" t="n">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2512"/>
+  <dimension ref="A1:I2514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88642,6 +88642,76 @@
         <v>500</v>
       </c>
     </row>
+    <row r="2513">
+      <c r="A2513" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2513" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2513" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D2513" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E2513" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F2513" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G2513" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H2513" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I2513" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="2514">
+      <c r="A2514" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2514" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2514" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D2514" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E2514" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F2514" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="G2514" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H2514" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="I2514" t="n">
+        <v>29500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2514"/>
+  <dimension ref="A1:I2515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88712,6 +88712,41 @@
         <v>29500</v>
       </c>
     </row>
+    <row r="2515">
+      <c r="A2515" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2515" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2515" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D2515" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E2515" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F2515" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G2515" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H2515" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I2515" t="n">
+        <v>37700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2515"/>
+  <dimension ref="A1:I2518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88747,6 +88747,113 @@
         <v>37700</v>
       </c>
     </row>
+    <row r="2516">
+      <c r="A2516" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2516" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2516" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D2516" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E2516" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F2516" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="G2516" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H2516" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="I2516" t="n">
+        <v>68000</v>
+      </c>
+    </row>
+    <row r="2517">
+      <c r="A2517" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2517" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2517" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D2517" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E2517" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F2517" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="G2517" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H2517" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="I2517" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2518">
+      <c r="A2518" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2518" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2518" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D2518" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E2518" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="F2518" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="G2518" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="H2518" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="I2518" t="n">
+        <v>16000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2518"/>
+  <dimension ref="A1:I2519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88854,6 +88854,41 @@
         <v>16000</v>
       </c>
     </row>
+    <row r="2519">
+      <c r="A2519" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2519" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2519" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D2519" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E2519" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="F2519" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="G2519" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H2519" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="I2519" t="n">
+        <v>2757000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2519"/>
+  <dimension ref="A1:I2520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88889,6 +88889,41 @@
         <v>2757000</v>
       </c>
     </row>
+    <row r="2520">
+      <c r="A2520" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2520" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2520" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D2520" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E2520" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F2520" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G2520" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H2520" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="I2520" t="n">
+        <v>2882000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5136.xlsx
+++ b/data/5136.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2520"/>
+  <dimension ref="A1:I2523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88924,6 +88924,111 @@
         <v>2882000</v>
       </c>
     </row>
+    <row r="2521">
+      <c r="A2521" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2521" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2521" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D2521" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E2521" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F2521" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="G2521" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H2521" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="I2521" t="n">
+        <v>1210900</v>
+      </c>
+    </row>
+    <row r="2522">
+      <c r="A2522" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2522" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2522" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D2522" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E2522" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F2522" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G2522" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H2522" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="I2522" t="n">
+        <v>906700</v>
+      </c>
+    </row>
+    <row r="2523">
+      <c r="A2523" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2523" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2523" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="D2523" t="inlineStr">
+        <is>
+          <t>COMPLET</t>
+        </is>
+      </c>
+      <c r="E2523" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="F2523" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G2523" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H2523" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="I2523" t="n">
+        <v>1963300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
